--- a/resource/kyoto/shop_list.xlsx
+++ b/resource/kyoto/shop_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/kyoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A19FC2-1827-434A-A3E3-B0B412344F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D154D8C-01CE-2341-8057-66ECD6C9F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ページ</t>
   </si>
@@ -43,12 +43,24 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +219,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -634,8 +653,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1006,7 +1028,7 @@
     <col min="5" max="5" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1025,6 +1047,18 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
